--- a/data/tabla 03-01.xlsx
+++ b/data/tabla 03-01.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="bh" sheetId="1" r:id="rId2"/>
+    <sheet name="cv" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="15">
   <si>
     <t>2010</t>
   </si>
@@ -53,6 +54,12 @@
   <si>
     <t>% de mujeres</t>
   </si>
+  <si>
+    <t>Edad promedio</t>
+  </si>
+  <si>
+    <t>Escolaridad promedio</t>
+  </si>
 </sst>
 </file>
 
@@ -61,10 +68,1966 @@
   <numFmts count="1">
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="327">
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+  <fonts count="816">
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1371,7 +3334,7 @@
       <name val="Times New Roman"/>
     </font>
   </fonts>
-  <fills count="70">
+  <fills count="172">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1718,8 +3681,518 @@
         <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="271">
+  <borders count="676">
     <border>
       <left/>
       <right/>
@@ -4157,11 +6630,3692 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="271">
+  <cellXfs count="676">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -5240,6 +11394,1626 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="326" fillId="69" borderId="270" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="0" borderId="271" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="0" borderId="272" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="0" borderId="273" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="274" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="0" borderId="275" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="0" borderId="276" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="0" borderId="277" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="0" borderId="278" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="0" borderId="279" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="280" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="281" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="282" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="0" borderId="283" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="284" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="0" borderId="285" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="0" borderId="286" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="0" borderId="287" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="0" borderId="288" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="0" borderId="289" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="0" borderId="290" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="0" borderId="291" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="0" borderId="292" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="0" borderId="293" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="0" borderId="294" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="0" borderId="295" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="296" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="0" borderId="297" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="0" borderId="298" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="355" fillId="0" borderId="299" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="356" fillId="0" borderId="300" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="357" fillId="0" borderId="301" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="358" fillId="0" borderId="302" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="359" fillId="0" borderId="303" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="360" fillId="0" borderId="304" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="361" fillId="0" borderId="305" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="362" fillId="0" borderId="306" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="363" fillId="0" borderId="307" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="364" fillId="0" borderId="308" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="365" fillId="0" borderId="309" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="366" fillId="0" borderId="310" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="367" fillId="0" borderId="311" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="368" fillId="0" borderId="312" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="369" fillId="0" borderId="313" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="370" fillId="0" borderId="314" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="371" fillId="0" borderId="315" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="372" fillId="0" borderId="316" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="373" fillId="0" borderId="317" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="374" fillId="0" borderId="318" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="375" fillId="0" borderId="319" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="0" borderId="320" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="0" borderId="321" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="0" borderId="322" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="0" borderId="323" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="0" borderId="324" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="0" borderId="325" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="382" fillId="0" borderId="326" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="383" fillId="0" borderId="327" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="384" fillId="0" borderId="328" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="385" fillId="0" borderId="329" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="386" fillId="0" borderId="330" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="387" fillId="0" borderId="331" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="388" fillId="0" borderId="332" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="389" fillId="0" borderId="333" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="390" fillId="0" borderId="334" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="391" fillId="0" borderId="335" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="392" fillId="0" borderId="336" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="393" fillId="0" borderId="337" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="394" fillId="0" borderId="338" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="395" fillId="0" borderId="339" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="396" fillId="0" borderId="340" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="397" fillId="0" borderId="341" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="398" fillId="0" borderId="342" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="399" fillId="0" borderId="343" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="0" borderId="344" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="0" borderId="345" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="346" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="0" borderId="347" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="0" borderId="348" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="411" fillId="0" borderId="349" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="413" fillId="0" borderId="350" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="415" fillId="0" borderId="351" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="417" fillId="0" borderId="352" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="419" fillId="0" borderId="353" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="421" fillId="0" borderId="354" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="423" fillId="0" borderId="355" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="425" fillId="0" borderId="356" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="427" fillId="0" borderId="357" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="429" fillId="0" borderId="358" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="431" fillId="0" borderId="359" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="433" fillId="0" borderId="360" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="435" fillId="0" borderId="361" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="437" fillId="0" borderId="362" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="439" fillId="0" borderId="363" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="441" fillId="0" borderId="364" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="443" fillId="0" borderId="365" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="445" fillId="0" borderId="366" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="447" fillId="0" borderId="367" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="449" fillId="0" borderId="368" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="451" fillId="0" borderId="369" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="453" fillId="0" borderId="370" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="455" fillId="0" borderId="371" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="456" fillId="70" borderId="372" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="457" fillId="71" borderId="373" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="458" fillId="72" borderId="374" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="459" fillId="73" borderId="375" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="460" fillId="74" borderId="376" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="461" fillId="75" borderId="377" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="462" fillId="76" borderId="378" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="463" fillId="77" borderId="379" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="464" fillId="78" borderId="380" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="465" fillId="79" borderId="381" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="466" fillId="80" borderId="382" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="467" fillId="81" borderId="383" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="468" fillId="82" borderId="384" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="469" fillId="83" borderId="385" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="470" fillId="84" borderId="386" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="471" fillId="85" borderId="387" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="472" fillId="86" borderId="388" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="473" fillId="87" borderId="389" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="474" fillId="88" borderId="390" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="475" fillId="89" borderId="391" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="476" fillId="90" borderId="392" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="477" fillId="91" borderId="393" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="478" fillId="92" borderId="394" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="479" fillId="93" borderId="395" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="480" fillId="94" borderId="396" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="481" fillId="95" borderId="397" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="482" fillId="96" borderId="398" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="483" fillId="97" borderId="399" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="484" fillId="98" borderId="400" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="485" fillId="99" borderId="401" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="100" borderId="402" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="487" fillId="101" borderId="403" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="102" borderId="404" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="103" borderId="405" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="490" fillId="0" borderId="406" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="491" fillId="0" borderId="407" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="492" fillId="0" borderId="408" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="493" fillId="0" borderId="409" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="494" fillId="0" borderId="410" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="495" fillId="0" borderId="411" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="496" fillId="0" borderId="412" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="497" fillId="0" borderId="413" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="498" fillId="0" borderId="414" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="499" fillId="0" borderId="415" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="500" fillId="0" borderId="416" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="501" fillId="0" borderId="417" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="502" fillId="0" borderId="418" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="503" fillId="0" borderId="419" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="504" fillId="0" borderId="420" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="505" fillId="0" borderId="421" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="506" fillId="0" borderId="422" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="507" fillId="0" borderId="423" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="508" fillId="0" borderId="424" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="509" fillId="0" borderId="425" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="510" fillId="0" borderId="426" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="511" fillId="0" borderId="427" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="512" fillId="0" borderId="428" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="513" fillId="0" borderId="429" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="514" fillId="0" borderId="430" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="515" fillId="0" borderId="431" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="516" fillId="0" borderId="432" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="517" fillId="0" borderId="433" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="518" fillId="0" borderId="434" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="519" fillId="0" borderId="435" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="520" fillId="0" borderId="436" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="521" fillId="0" borderId="437" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="522" fillId="0" borderId="438" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="523" fillId="0" borderId="439" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="524" fillId="0" borderId="440" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="525" fillId="0" borderId="441" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="526" fillId="0" borderId="442" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="527" fillId="0" borderId="443" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="528" fillId="0" borderId="444" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="529" fillId="0" borderId="445" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="530" fillId="0" borderId="446" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="531" fillId="0" borderId="447" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="532" fillId="0" borderId="448" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="533" fillId="0" borderId="449" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="534" fillId="0" borderId="450" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="535" fillId="0" borderId="451" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="536" fillId="0" borderId="452" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="537" fillId="0" borderId="453" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="538" fillId="0" borderId="454" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="539" fillId="0" borderId="455" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="540" fillId="0" borderId="456" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="541" fillId="0" borderId="457" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="542" fillId="0" borderId="458" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="543" fillId="0" borderId="459" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="544" fillId="0" borderId="460" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="545" fillId="0" borderId="461" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="546" fillId="0" borderId="462" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="547" fillId="0" borderId="463" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="548" fillId="0" borderId="464" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="549" fillId="0" borderId="465" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="550" fillId="0" borderId="466" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="551" fillId="0" borderId="467" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="552" fillId="0" borderId="468" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="553" fillId="0" borderId="469" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="554" fillId="0" borderId="470" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="555" fillId="0" borderId="471" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="556" fillId="0" borderId="472" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="557" fillId="0" borderId="473" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="558" fillId="0" borderId="474" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="559" fillId="0" borderId="475" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="560" fillId="0" borderId="476" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="561" fillId="0" borderId="477" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="562" fillId="0" borderId="478" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="564" fillId="0" borderId="479" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="566" fillId="0" borderId="480" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="568" fillId="0" borderId="481" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="570" fillId="0" borderId="482" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="572" fillId="0" borderId="483" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="574" fillId="0" borderId="484" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="576" fillId="0" borderId="485" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="578" fillId="0" borderId="486" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="580" fillId="0" borderId="487" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="582" fillId="0" borderId="488" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="584" fillId="0" borderId="489" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="586" fillId="0" borderId="490" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="588" fillId="0" borderId="491" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="590" fillId="0" borderId="492" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="592" fillId="0" borderId="493" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="594" fillId="0" borderId="494" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="596" fillId="0" borderId="495" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="598" fillId="0" borderId="496" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="600" fillId="0" borderId="497" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="602" fillId="0" borderId="498" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="604" fillId="0" borderId="499" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="606" fillId="0" borderId="500" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="608" fillId="0" borderId="501" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="610" fillId="0" borderId="502" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="612" fillId="0" borderId="503" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="614" fillId="0" borderId="504" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="616" fillId="0" borderId="505" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="618" fillId="0" borderId="506" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="619" fillId="104" borderId="507" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="620" fillId="105" borderId="508" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="621" fillId="106" borderId="509" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="622" fillId="107" borderId="510" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="623" fillId="108" borderId="511" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="624" fillId="109" borderId="512" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="625" fillId="110" borderId="513" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="626" fillId="111" borderId="514" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="627" fillId="112" borderId="515" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="628" fillId="113" borderId="516" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="629" fillId="114" borderId="517" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="630" fillId="115" borderId="518" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="631" fillId="116" borderId="519" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="632" fillId="117" borderId="520" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="633" fillId="118" borderId="521" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="634" fillId="119" borderId="522" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="635" fillId="120" borderId="523" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="636" fillId="121" borderId="524" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="637" fillId="122" borderId="525" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="638" fillId="123" borderId="526" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="639" fillId="124" borderId="527" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="640" fillId="125" borderId="528" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="641" fillId="126" borderId="529" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="642" fillId="127" borderId="530" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="643" fillId="128" borderId="531" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="644" fillId="129" borderId="532" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="645" fillId="130" borderId="533" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="646" fillId="131" borderId="534" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="647" fillId="132" borderId="535" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="648" fillId="133" borderId="536" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="649" fillId="134" borderId="537" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="650" fillId="135" borderId="538" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="651" fillId="136" borderId="539" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="652" fillId="137" borderId="540" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="653" fillId="0" borderId="541" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="654" fillId="0" borderId="542" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="655" fillId="0" borderId="543" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="656" fillId="0" borderId="544" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="657" fillId="0" borderId="545" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="658" fillId="0" borderId="546" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="659" fillId="0" borderId="547" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="660" fillId="0" borderId="548" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="661" fillId="0" borderId="549" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="662" fillId="0" borderId="550" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="663" fillId="0" borderId="551" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="664" fillId="0" borderId="552" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="665" fillId="0" borderId="553" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="666" fillId="0" borderId="554" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="667" fillId="0" borderId="555" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="668" fillId="0" borderId="556" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="669" fillId="0" borderId="557" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="670" fillId="0" borderId="558" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="671" fillId="0" borderId="559" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="672" fillId="0" borderId="560" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="673" fillId="0" borderId="561" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="674" fillId="0" borderId="562" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="675" fillId="0" borderId="563" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="676" fillId="0" borderId="564" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="677" fillId="0" borderId="565" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="678" fillId="0" borderId="566" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="679" fillId="0" borderId="567" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="680" fillId="0" borderId="568" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="681" fillId="0" borderId="569" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="682" fillId="0" borderId="570" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="683" fillId="0" borderId="571" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="684" fillId="0" borderId="572" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="685" fillId="0" borderId="573" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="686" fillId="0" borderId="574" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="687" fillId="0" borderId="575" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="688" fillId="0" borderId="576" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="689" fillId="0" borderId="577" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="690" fillId="0" borderId="578" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="691" fillId="0" borderId="579" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="692" fillId="0" borderId="580" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="693" fillId="0" borderId="581" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="694" fillId="0" borderId="582" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="695" fillId="0" borderId="583" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="696" fillId="0" borderId="584" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="697" fillId="0" borderId="585" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="698" fillId="0" borderId="586" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="699" fillId="0" borderId="587" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="700" fillId="0" borderId="588" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="701" fillId="0" borderId="589" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="702" fillId="0" borderId="590" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="703" fillId="0" borderId="591" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="704" fillId="0" borderId="592" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="705" fillId="0" borderId="593" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="706" fillId="0" borderId="594" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="707" fillId="0" borderId="595" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="708" fillId="0" borderId="596" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="709" fillId="0" borderId="597" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="710" fillId="0" borderId="598" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="711" fillId="0" borderId="599" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="712" fillId="0" borderId="600" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="713" fillId="0" borderId="601" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="714" fillId="0" borderId="602" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="715" fillId="0" borderId="603" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="716" fillId="0" borderId="604" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="717" fillId="0" borderId="605" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="718" fillId="0" borderId="606" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="719" fillId="0" borderId="607" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="720" fillId="0" borderId="608" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="721" fillId="0" borderId="609" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="722" fillId="0" borderId="610" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="723" fillId="0" borderId="611" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="724" fillId="0" borderId="612" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="725" fillId="0" borderId="613" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="727" fillId="0" borderId="614" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="729" fillId="0" borderId="615" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="731" fillId="0" borderId="616" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="733" fillId="0" borderId="617" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="735" fillId="0" borderId="618" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="737" fillId="0" borderId="619" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="739" fillId="0" borderId="620" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="741" fillId="0" borderId="621" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="743" fillId="0" borderId="622" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="745" fillId="0" borderId="623" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="747" fillId="0" borderId="624" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="749" fillId="0" borderId="625" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="751" fillId="0" borderId="626" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="753" fillId="0" borderId="627" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="755" fillId="0" borderId="628" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="757" fillId="0" borderId="629" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="759" fillId="0" borderId="630" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="761" fillId="0" borderId="631" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="763" fillId="0" borderId="632" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="765" fillId="0" borderId="633" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="767" fillId="0" borderId="634" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="769" fillId="0" borderId="635" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="771" fillId="0" borderId="636" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="773" fillId="0" borderId="637" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="775" fillId="0" borderId="638" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="777" fillId="0" borderId="639" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="779" fillId="0" borderId="640" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="781" fillId="0" borderId="641" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="782" fillId="138" borderId="642" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="783" fillId="139" borderId="643" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="784" fillId="140" borderId="644" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="785" fillId="141" borderId="645" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="786" fillId="142" borderId="646" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="787" fillId="143" borderId="647" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="788" fillId="144" borderId="648" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="789" fillId="145" borderId="649" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="790" fillId="146" borderId="650" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="791" fillId="147" borderId="651" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="792" fillId="148" borderId="652" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="793" fillId="149" borderId="653" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="794" fillId="150" borderId="654" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="795" fillId="151" borderId="655" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="796" fillId="152" borderId="656" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="797" fillId="153" borderId="657" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="798" fillId="154" borderId="658" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="799" fillId="155" borderId="659" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="800" fillId="156" borderId="660" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="801" fillId="157" borderId="661" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="802" fillId="158" borderId="662" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="803" fillId="159" borderId="663" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="804" fillId="160" borderId="664" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="805" fillId="161" borderId="665" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="806" fillId="162" borderId="666" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="807" fillId="163" borderId="667" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="808" fillId="164" borderId="668" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="809" fillId="165" borderId="669" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="810" fillId="166" borderId="670" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="811" fillId="167" borderId="671" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="812" fillId="168" borderId="672" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="813" fillId="169" borderId="673" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="814" fillId="170" borderId="674" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="815" fillId="171" borderId="675" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5256,94 +13030,94 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="507" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="265" t="s">
+      <c r="B2" s="535" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="266" t="s">
+      <c r="C2" s="536" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="267" t="s">
+      <c r="D2" s="537" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="268" t="s">
+      <c r="E2" s="538" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="269" t="s">
+      <c r="F2" s="539" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="270" t="s">
+      <c r="G2" s="540" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="244" t="s">
-        <v>10</v>
+      <c r="A3" s="514" t="s">
+        <v>13</v>
       </c>
-      <c r="B3" s="245">
+      <c r="B3" s="515">
         <v>41.605014801025391</v>
       </c>
-      <c r="C3" s="246">
+      <c r="C3" s="516">
         <v>42.047313690185547</v>
       </c>
-      <c r="D3" s="247">
+      <c r="D3" s="517">
         <v>42.492111206054687</v>
       </c>
-      <c r="E3" s="248">
+      <c r="E3" s="518">
         <v>42.841259002685547</v>
       </c>
-      <c r="F3" s="249">
+      <c r="F3" s="519">
         <v>42.990020751953125</v>
       </c>
-      <c r="G3" s="250">
+      <c r="G3" s="520">
         <v>43.212192535400391</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="251" t="s">
-        <v>11</v>
+      <c r="A4" s="521" t="s">
+        <v>14</v>
       </c>
-      <c r="B4" s="252">
-        <v>11.368629455566406</v>
+      <c r="B4" s="522">
+        <v>8.3737115859985352</v>
       </c>
-      <c r="C4" s="253">
-        <v>11.417449951171875</v>
+      <c r="C4" s="523">
+        <v>8.4801197052001953</v>
       </c>
-      <c r="D4" s="254">
-        <v>11.52506160736084</v>
+      <c r="D4" s="524">
+        <v>8.6371574401855469</v>
       </c>
-      <c r="E4" s="255">
-        <v>11.637914657592773</v>
+      <c r="E4" s="525">
+        <v>8.7957057952880859</v>
       </c>
-      <c r="F4" s="256">
-        <v>11.720629692077637</v>
+      <c r="F4" s="526">
+        <v>8.9260339736938477</v>
       </c>
-      <c r="G4" s="257">
-        <v>11.851516723632812</v>
+      <c r="G4" s="527">
+        <v>9.1187229156494141</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="258" t="s">
+      <c r="A5" s="528" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="259">
+      <c r="B5" s="529">
         <v>38.827571868896484</v>
       </c>
-      <c r="C5" s="260">
+      <c r="C5" s="530">
         <v>39.629055023193359</v>
       </c>
-      <c r="D5" s="261">
+      <c r="D5" s="531">
         <v>40.037982940673828</v>
       </c>
-      <c r="E5" s="262">
+      <c r="E5" s="532">
         <v>40.348682403564453</v>
       </c>
-      <c r="F5" s="263">
+      <c r="F5" s="533">
         <v>40.949981689453125</v>
       </c>
-      <c r="G5" s="264">
+      <c r="G5" s="534">
         <v>40.816764831542969</v>
       </c>
     </row>
@@ -5358,4 +13132,112 @@
     <mergeCell ref="A2:A2"/>
   </mergeCells>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:G5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" s="642" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="670"/>
+      <c r="C2" s="671" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="672" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="673" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="674" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="675" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="649" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="650">
+        <v>0.38434901833534241</v>
+      </c>
+      <c r="C3" s="651">
+        <v>0.29273751378059387</v>
+      </c>
+      <c r="D3" s="652">
+        <v>0.2707674503326416</v>
+      </c>
+      <c r="E3" s="653">
+        <v>0.27879402041435242</v>
+      </c>
+      <c r="F3" s="654">
+        <v>0.26100727915763855</v>
+      </c>
+      <c r="G3" s="655">
+        <v>0.26571816205978394</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="656" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="657">
+        <v>1.1405290365219116</v>
+      </c>
+      <c r="C4" s="658">
+        <v>0.81517046689987183</v>
+      </c>
+      <c r="D4" s="659">
+        <v>0.80262994766235352</v>
+      </c>
+      <c r="E4" s="660">
+        <v>0.76269853115081787</v>
+      </c>
+      <c r="F4" s="661">
+        <v>0.7512703537940979</v>
+      </c>
+      <c r="G4" s="662">
+        <v>0.73753303289413452</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="663" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="664">
+        <v>0.8304256796836853</v>
+      </c>
+      <c r="C5" s="665">
+        <v>0.78795838356018066</v>
+      </c>
+      <c r="D5" s="666">
+        <v>0.76473796367645264</v>
+      </c>
+      <c r="E5" s="667">
+        <v>0.72413843870162964</v>
+      </c>
+      <c r="F5" s="668">
+        <v>0.72036206722259521</v>
+      </c>
+      <c r="G5" s="669">
+        <v>0.73150116205215454</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B2:B2"/>
+    <mergeCell ref="C2:C2"/>
+    <mergeCell ref="D2:D2"/>
+    <mergeCell ref="E2:E2"/>
+    <mergeCell ref="F2:F2"/>
+    <mergeCell ref="G2:G2"/>
+    <mergeCell ref="A2:A2"/>
+  </mergeCells>
+</worksheet>
 </file>